--- a/Number of Verses Odd And Even Share.xlsx
+++ b/Number of Verses Odd And Even Share.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19590" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="number_of_verses" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Surah</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Surah Number</t>
-  </si>
-  <si>
-    <t>54 Odd</t>
-  </si>
-  <si>
-    <t>60 Even</t>
   </si>
   <si>
     <t>- shuffle the ayah counts</t>
@@ -621,27 +615,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -996,30 +970,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <f>SUM(A3:A116)</f>
+        <f>SUM(A3:A199)</f>
         <v>6555</v>
       </c>
       <c r="B1" s="1">
-        <f>SUM(B3:B116)</f>
+        <f>SUM(B3:B199)</f>
         <v>6236</v>
       </c>
       <c r="C1" s="1"/>
@@ -1034,7 +1008,7 @@
       <c r="F1" s="3"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1030,10 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1067,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>B3+A3</f>
+        <f t="shared" ref="C3:C34" si="0">B3+A3</f>
         <v>8</v>
       </c>
       <c r="D3">
@@ -1087,10 +1061,10 @@
         <v>Odd</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1098,30 +1072,30 @@
         <v>286</v>
       </c>
       <c r="C4">
-        <f>B4+A4</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">IF(MOD( C4,2)=1,C4,0)</f>
+        <f t="shared" ref="D4:D67" si="1">IF(MOD( C4,2)=1,C4,0)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">IF(MOD( $C4,2)=0,$C4,0)</f>
+        <f t="shared" ref="E4:E67" si="2">IF(MOD( $C4,2)=0,$C4,0)</f>
         <v>288</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F67" si="2">IF(D4=0,"EVEN","ODD")</f>
+        <f t="shared" ref="F4:F67" si="3">IF(D4=0,"EVEN","ODD")</f>
         <v>EVEN</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G67" si="3">IF(MOD($A4,2)=1,"Odd","Even")</f>
+        <f t="shared" ref="G4:G67" si="4">IF(MOD($A4,2)=1,"Odd","Even")</f>
         <v>Even</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1129,28 +1103,28 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <f>B5+A5</f>
+        <f t="shared" si="0"/>
         <v>203</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Odd</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1158,27 +1132,27 @@
         <v>176</v>
       </c>
       <c r="C6">
-        <f>B6+A6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1186,27 +1160,27 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <f>B7+A7</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1214,27 +1188,27 @@
         <v>165</v>
       </c>
       <c r="C8">
-        <f>B8+A8</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1242,27 +1216,27 @@
         <v>206</v>
       </c>
       <c r="C9">
-        <f>B9+A9</f>
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1270,27 +1244,27 @@
         <v>75</v>
       </c>
       <c r="C10">
-        <f>B10+A10</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1298,27 +1272,27 @@
         <v>129</v>
       </c>
       <c r="C11">
-        <f>B11+A11</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1326,27 +1300,27 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <f>B12+A12</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1354,27 +1328,27 @@
         <v>123</v>
       </c>
       <c r="C13">
-        <f>B13+A13</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1382,27 +1356,27 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <f>B14+A14</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1410,27 +1384,27 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <f>B15+A15</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1438,27 +1412,27 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <f>B16+A16</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1466,27 +1440,27 @@
         <v>99</v>
       </c>
       <c r="C17">
-        <f>B17+A17</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1494,27 +1468,27 @@
         <v>128</v>
       </c>
       <c r="C18">
-        <f>B18+A18</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1522,27 +1496,27 @@
         <v>111</v>
       </c>
       <c r="C19">
-        <f>B19+A19</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1550,27 +1524,27 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <f>B20+A20</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1578,27 +1552,27 @@
         <v>98</v>
       </c>
       <c r="C21">
-        <f>B21+A21</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1606,27 +1580,27 @@
         <v>135</v>
       </c>
       <c r="C22">
-        <f>B22+A22</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1634,27 +1608,27 @@
         <v>112</v>
       </c>
       <c r="C23">
-        <f>B23+A23</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1662,27 +1636,27 @@
         <v>78</v>
       </c>
       <c r="C24">
-        <f>B24+A24</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1690,27 +1664,27 @@
         <v>118</v>
       </c>
       <c r="C25">
-        <f>B25+A25</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1718,27 +1692,27 @@
         <v>64</v>
       </c>
       <c r="C26">
-        <f>B26+A26</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1746,27 +1720,27 @@
         <v>77</v>
       </c>
       <c r="C27">
-        <f>B27+A27</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1774,27 +1748,27 @@
         <v>227</v>
       </c>
       <c r="C28">
-        <f>B28+A28</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1802,27 +1776,27 @@
         <v>93</v>
       </c>
       <c r="C29">
-        <f>B29+A29</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1830,27 +1804,27 @@
         <v>88</v>
       </c>
       <c r="C30">
-        <f>B30+A30</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1858,27 +1832,27 @@
         <v>69</v>
       </c>
       <c r="C31">
-        <f>B31+A31</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1886,27 +1860,27 @@
         <v>60</v>
       </c>
       <c r="C32">
-        <f>B32+A32</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1914,27 +1888,27 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <f>B33+A33</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1942,27 +1916,27 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <f>B34+A34</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1970,27 +1944,27 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <f>B35+A35</f>
+        <f t="shared" ref="C35:C66" si="5">B35+A35</f>
         <v>106</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1998,27 +1972,27 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <f>B36+A36</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2026,27 +2000,27 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <f>B37+A37</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2054,27 +2028,27 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <f>B38+A38</f>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2082,27 +2056,27 @@
         <v>182</v>
       </c>
       <c r="C39">
-        <f>B39+A39</f>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2110,27 +2084,27 @@
         <v>88</v>
       </c>
       <c r="C40">
-        <f>B40+A40</f>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2138,27 +2112,27 @@
         <v>75</v>
       </c>
       <c r="C41">
-        <f>B41+A41</f>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2166,27 +2140,27 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <f>B42+A42</f>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2194,27 +2168,27 @@
         <v>54</v>
       </c>
       <c r="C43">
-        <f>B43+A43</f>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2222,27 +2196,27 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <f>B44+A44</f>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2250,27 +2224,27 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <f>B45+A45</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2278,27 +2252,27 @@
         <v>59</v>
       </c>
       <c r="C46">
-        <f>B46+A46</f>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2306,27 +2280,27 @@
         <v>37</v>
       </c>
       <c r="C47">
-        <f>B47+A47</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2334,27 +2308,27 @@
         <v>35</v>
       </c>
       <c r="C48">
-        <f>B48+A48</f>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2362,27 +2336,27 @@
         <v>38</v>
       </c>
       <c r="C49">
-        <f>B49+A49</f>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2390,27 +2364,27 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <f>B50+A50</f>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2418,27 +2392,27 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <f>B51+A51</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2446,27 +2420,27 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <f>B52+A52</f>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2474,27 +2448,27 @@
         <v>60</v>
       </c>
       <c r="C53">
-        <f>B53+A53</f>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2502,27 +2476,27 @@
         <v>49</v>
       </c>
       <c r="C54">
-        <f>B54+A54</f>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2530,27 +2504,27 @@
         <v>62</v>
       </c>
       <c r="C55">
-        <f>B55+A55</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2558,27 +2532,27 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <f>B56+A56</f>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2586,27 +2560,27 @@
         <v>78</v>
       </c>
       <c r="C57">
-        <f>B57+A57</f>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2614,27 +2588,27 @@
         <v>96</v>
       </c>
       <c r="C58">
-        <f>B58+A58</f>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2642,27 +2616,27 @@
         <v>29</v>
       </c>
       <c r="C59">
-        <f>B59+A59</f>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2670,27 +2644,27 @@
         <v>22</v>
       </c>
       <c r="C60">
-        <f>B60+A60</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2698,27 +2672,27 @@
         <v>24</v>
       </c>
       <c r="C61">
-        <f>B61+A61</f>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2726,27 +2700,27 @@
         <v>13</v>
       </c>
       <c r="C62">
-        <f>B62+A62</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2754,27 +2728,27 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <f>B63+A63</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2782,27 +2756,27 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <f>B64+A64</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2810,27 +2784,27 @@
         <v>11</v>
       </c>
       <c r="C65">
-        <f>B65+A65</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2838,27 +2812,27 @@
         <v>18</v>
       </c>
       <c r="C66">
-        <f>B66+A66</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EVEN</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="3"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2866,27 +2840,27 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <f>B67+A67</f>
+        <f t="shared" ref="C67:C98" si="6">B67+A67</f>
         <v>77</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ODD</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="3"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2894,27 +2868,27 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <f>B68+A68</f>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D116" si="4">IF(MOD( C68,2)=1,C68,0)</f>
+        <f t="shared" ref="D68:D121" si="7">IF(MOD( C68,2)=1,C68,0)</f>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E116" si="5">IF(MOD( $C68,2)=0,$C68,0)</f>
+        <f t="shared" ref="E68:E121" si="8">IF(MOD( $C68,2)=0,$C68,0)</f>
         <v>78</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" ref="F68:F116" si="6">IF(D68=0,"EVEN","ODD")</f>
+        <f t="shared" ref="F68:F121" si="9">IF(D68=0,"EVEN","ODD")</f>
         <v>EVEN</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G116" si="7">IF(MOD($A68,2)=1,"Odd","Even")</f>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G68:G121" si="10">IF(MOD($A68,2)=1,"Odd","Even")</f>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2922,27 +2896,27 @@
         <v>30</v>
       </c>
       <c r="C69">
-        <f>B69+A69</f>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2950,27 +2924,27 @@
         <v>52</v>
       </c>
       <c r="C70">
-        <f>B70+A70</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2978,27 +2952,27 @@
         <v>52</v>
       </c>
       <c r="C71">
-        <f>B71+A71</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3006,27 +2980,27 @@
         <v>44</v>
       </c>
       <c r="C72">
-        <f>B72+A72</f>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3034,27 +3008,27 @@
         <v>28</v>
       </c>
       <c r="C73">
-        <f>B73+A73</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3062,27 +3036,27 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <f>B74+A74</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3090,27 +3064,27 @@
         <v>20</v>
       </c>
       <c r="C75">
-        <f>B75+A75</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3118,27 +3092,27 @@
         <v>56</v>
       </c>
       <c r="C76">
-        <f>B76+A76</f>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3146,27 +3120,27 @@
         <v>40</v>
       </c>
       <c r="C77">
-        <f>B77+A77</f>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3174,27 +3148,27 @@
         <v>31</v>
       </c>
       <c r="C78">
-        <f>B78+A78</f>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3202,27 +3176,27 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <f>B79+A79</f>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3230,27 +3204,27 @@
         <v>40</v>
       </c>
       <c r="C80">
-        <f>B80+A80</f>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3258,27 +3232,27 @@
         <v>46</v>
       </c>
       <c r="C81">
-        <f>B81+A81</f>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3286,27 +3260,27 @@
         <v>42</v>
       </c>
       <c r="C82">
-        <f>B82+A82</f>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="F82" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3314,27 +3288,27 @@
         <v>29</v>
       </c>
       <c r="C83">
-        <f>B83+A83</f>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3342,27 +3316,27 @@
         <v>19</v>
       </c>
       <c r="C84">
-        <f>B84+A84</f>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3370,27 +3344,27 @@
         <v>36</v>
       </c>
       <c r="C85">
-        <f>B85+A85</f>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3398,27 +3372,27 @@
         <v>25</v>
       </c>
       <c r="C86">
-        <f>B86+A86</f>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F86" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3426,27 +3400,27 @@
         <v>22</v>
       </c>
       <c r="C87">
-        <f>B87+A87</f>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F87" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3454,27 +3428,27 @@
         <v>17</v>
       </c>
       <c r="C88">
-        <f>B88+A88</f>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F88" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3482,27 +3456,27 @@
         <v>19</v>
       </c>
       <c r="C89">
-        <f>B89+A89</f>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="F89" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3510,27 +3484,27 @@
         <v>26</v>
       </c>
       <c r="C90">
-        <f>B90+A90</f>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="F90" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3538,27 +3512,27 @@
         <v>30</v>
       </c>
       <c r="C91">
-        <f>B91+A91</f>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3566,27 +3540,27 @@
         <v>20</v>
       </c>
       <c r="C92">
-        <f>B92+A92</f>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="F92" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3594,27 +3568,27 @@
         <v>15</v>
       </c>
       <c r="C93">
-        <f>B93+A93</f>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="F93" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3622,27 +3596,27 @@
         <v>21</v>
       </c>
       <c r="C94">
-        <f>B94+A94</f>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F94" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3650,27 +3624,27 @@
         <v>11</v>
       </c>
       <c r="C95">
-        <f>B95+A95</f>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="F95" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3678,27 +3652,27 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <f>B96+A96</f>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="F96" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3706,27 +3680,27 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <f>B97+A97</f>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F97" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3734,27 +3708,27 @@
         <v>19</v>
       </c>
       <c r="C98">
-        <f>B98+A98</f>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F98" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3762,27 +3736,27 @@
         <v>5</v>
       </c>
       <c r="C99">
-        <f>B99+A99</f>
+        <f t="shared" ref="C99:C130" si="11">B99+A99</f>
         <v>102</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
       <c r="F99" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3790,27 +3764,27 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <f>B100+A100</f>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="F100" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3818,27 +3792,27 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <f>B101+A101</f>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F101" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3846,27 +3820,27 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <f>B102+A102</f>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F102" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3874,27 +3848,27 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <f>B103+A103</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="F103" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3902,27 +3876,27 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <f>B104+A104</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="F104" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3930,27 +3904,27 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <f>B105+A105</f>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
       <c r="F105" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3958,27 +3932,27 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <f>B106+A106</f>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="E106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F106" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3986,27 +3960,27 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <f>B107+A107</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="F107" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4014,27 +3988,27 @@
         <v>4</v>
       </c>
       <c r="C108">
-        <f>B108+A108</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="F108" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4042,27 +4016,27 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <f>B109+A109</f>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
       <c r="F109" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4070,27 +4044,27 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <f>B110+A110</f>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="E110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F110" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4098,27 +4072,27 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <f>B111+A111</f>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="E111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F111" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4126,27 +4100,27 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <f>B112+A112</f>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="E112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F112" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ODD</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4154,27 +4128,27 @@
         <v>5</v>
       </c>
       <c r="C113">
-        <f>B113+A113</f>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="F113" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4182,27 +4156,27 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <f>B114+A114</f>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="F114" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4210,30 +4184,27 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <f>B115+A115</f>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="F115" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="7"/>
-        <v>Odd</v>
-      </c>
-      <c r="K115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Odd</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4241,45 +4212,42 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <f>B116+A116</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="F116" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>EVEN</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="7"/>
-        <v>Even</v>
-      </c>
-      <c r="K116" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>Even</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F117" s="3"/>
       <c r="G117"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="B3:B4 B6 B13 B11 B15:B20 B24 B26:B27 B29:B32 B34:B37 B40:B41 B45 B47 B58:B60 B65:B66 B68 B70 B72 B74 B76 B80 B82:B83 B89:B90 B92:B93 B95:B96" name="Even Surah Ayah Counts"/>
+    <protectedRange sqref="A3:B116" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A1:G116"/>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$B$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4304,18 +4272,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" s="4">
         <f>SUM(D3:D116)</f>
         <v>6555</v>
@@ -4327,15 +4295,15 @@
       <c r="F1" s="3"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -4348,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4375,7 +4343,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4402,7 +4370,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4429,7 +4397,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4456,7 +4424,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4483,7 +4451,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4510,7 +4478,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4537,7 +4505,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4564,7 +4532,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4591,7 +4559,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4618,7 +4586,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4645,7 +4613,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4672,7 +4640,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4699,7 +4667,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4726,7 +4694,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4753,7 +4721,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4780,7 +4748,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4807,7 +4775,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4834,7 +4802,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4861,7 +4829,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4888,7 +4856,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4915,7 +4883,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4942,7 +4910,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4969,7 +4937,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4996,7 +4964,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5023,7 +4991,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5050,7 +5018,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5077,7 +5045,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5104,7 +5072,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5131,7 +5099,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5158,7 +5126,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5185,7 +5153,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5212,7 +5180,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5239,7 +5207,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5266,7 +5234,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5293,7 +5261,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5320,7 +5288,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5347,7 +5315,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5374,7 +5342,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5401,7 +5369,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5428,7 +5396,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5455,7 +5423,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5482,7 +5450,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5509,7 +5477,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5536,7 +5504,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5563,7 +5531,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5590,7 +5558,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5617,7 +5585,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5644,7 +5612,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5671,7 +5639,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5698,7 +5666,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5725,7 +5693,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5752,7 +5720,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5779,7 +5747,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5806,7 +5774,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5833,7 +5801,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5860,7 +5828,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5887,7 +5855,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5914,7 +5882,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5941,7 +5909,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5968,7 +5936,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5995,7 +5963,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6022,7 +5990,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6049,7 +6017,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6076,7 +6044,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6103,7 +6071,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6130,7 +6098,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6157,7 +6125,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6184,7 +6152,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6211,7 +6179,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6238,7 +6206,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6265,7 +6233,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6292,7 +6260,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6319,7 +6287,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6346,7 +6314,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6373,7 +6341,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6400,7 +6368,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6427,7 +6395,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6454,7 +6422,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6481,7 +6449,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6508,7 +6476,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6535,7 +6503,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6562,7 +6530,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6589,7 +6557,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6616,7 +6584,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6643,7 +6611,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6670,7 +6638,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6697,7 +6665,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6724,7 +6692,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6751,7 +6719,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6778,7 +6746,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6805,7 +6773,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6832,7 +6800,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6859,7 +6827,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6886,7 +6854,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6913,7 +6881,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6940,7 +6908,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6967,7 +6935,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6994,7 +6962,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7021,7 +6989,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7048,7 +7016,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7075,7 +7043,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7102,7 +7070,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7129,7 +7097,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7156,7 +7124,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7183,7 +7151,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7210,7 +7178,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7237,7 +7205,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7264,7 +7232,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7291,7 +7259,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7318,7 +7286,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7345,7 +7313,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7372,7 +7340,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7399,7 +7367,7 @@
         <v>Odd</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7426,7 +7394,7 @@
         <v>Even</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F117" s="3"/>
       <c r="G117"/>
     </row>
@@ -7442,5 +7410,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>